--- a/database/industries/folad/fasazan/balancesheet/quarterly.xlsx
+++ b/database/industries/folad/fasazan/balancesheet/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\fasazan\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\folad\fasazan\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3604003B-8C73-4C28-A7C0-BB17370EDD9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019503D1-1891-4484-B8DD-9876FB9E1FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7176" yWindow="5148" windowWidth="13800" windowHeight="7092" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="94">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,30 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1397/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1397/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1398/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1398/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1398/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1398/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,9 +91,36 @@
     <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
+    <t>فصل اول منتهی به 1402/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1402/06</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
+    <t>1399-03-12 (10)</t>
+  </si>
+  <si>
+    <t>1398-05-27 (3)</t>
+  </si>
+  <si>
+    <t>1398-08-30 (2)</t>
+  </si>
+  <si>
+    <t>1398-10-29</t>
+  </si>
+  <si>
+    <t>1400-04-03 (10)</t>
+  </si>
+  <si>
+    <t>1399-05-01 (2)</t>
+  </si>
+  <si>
+    <t>1399-08-29 (2)</t>
+  </si>
+  <si>
     <t>1399-11-08 (2)</t>
   </si>
   <si>
@@ -97,7 +148,13 @@
     <t>1401-10-26</t>
   </si>
   <si>
-    <t>1402-03-07 (2)</t>
+    <t>1402-07-29 (4)</t>
+  </si>
+  <si>
+    <t>1402-04-29</t>
+  </si>
+  <si>
+    <t>1402-07-29</t>
   </si>
   <si>
     <t>دارایی</t>
@@ -106,6 +163,9 @@
     <t>موجودی نقد</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>سرمایه گذاری کوتاه مدت</t>
   </si>
   <si>
@@ -140,9 +200,6 @@
   </si>
   <si>
     <t>پیش پرداخت های سرمایه ای</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>سایر دارایی ها</t>
@@ -728,7 +785,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M59"/>
+  <dimension ref="B1:W59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -742,9 +799,14 @@
     <col min="9" max="9" width="31" customWidth="1"/>
     <col min="10" max="12" width="29" customWidth="1"/>
     <col min="13" max="13" width="31" customWidth="1"/>
+    <col min="14" max="16" width="29" customWidth="1"/>
+    <col min="17" max="17" width="31" customWidth="1"/>
+    <col min="18" max="20" width="29" customWidth="1"/>
+    <col min="21" max="21" width="31" customWidth="1"/>
+    <col min="22" max="23" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -757,8 +819,18 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -773,8 +845,18 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -789,8 +871,18 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -803,8 +895,18 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -819,8 +921,18 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+    </row>
+    <row r="6" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -835,8 +947,18 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -849,8 +971,18 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -885,44 +1017,102 @@
       <c r="M8" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C9" s="9"/>
-      <c r="D9" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="D9" s="9"/>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -935,10 +1125,20 @@
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -951,194 +1151,354 @@
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="C12" s="15"/>
-      <c r="D12" s="15">
+      <c r="D12" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="15">
+        <v>95621</v>
+      </c>
+      <c r="F12" s="15">
+        <v>165796</v>
+      </c>
+      <c r="G12" s="15">
+        <v>57622</v>
+      </c>
+      <c r="H12" s="15">
+        <v>322945</v>
+      </c>
+      <c r="I12" s="15">
+        <v>111894</v>
+      </c>
+      <c r="J12" s="15">
+        <v>132133</v>
+      </c>
+      <c r="K12" s="15">
+        <v>197202</v>
+      </c>
+      <c r="L12" s="15">
         <v>935891</v>
       </c>
-      <c r="E12" s="15">
+      <c r="M12" s="15">
         <v>158958</v>
       </c>
-      <c r="F12" s="15">
+      <c r="N12" s="15">
         <v>262455</v>
       </c>
-      <c r="G12" s="15">
+      <c r="O12" s="15">
         <v>707818</v>
       </c>
-      <c r="H12" s="15">
+      <c r="P12" s="15">
         <v>93888</v>
       </c>
-      <c r="I12" s="15">
+      <c r="Q12" s="15">
         <v>548488</v>
       </c>
-      <c r="J12" s="15">
+      <c r="R12" s="15">
         <v>622786</v>
       </c>
-      <c r="K12" s="15">
+      <c r="S12" s="15">
         <v>328344</v>
       </c>
-      <c r="L12" s="15">
+      <c r="T12" s="15">
         <v>617090</v>
       </c>
-      <c r="M12" s="15">
+      <c r="U12" s="15">
         <v>552209</v>
       </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V12" s="15">
+        <v>1264461</v>
+      </c>
+      <c r="W12" s="15">
+        <v>1352767</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C13" s="11"/>
-      <c r="D13" s="11">
+      <c r="D13" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="11">
+        <v>13000</v>
+      </c>
+      <c r="F13" s="11">
+        <v>13000</v>
+      </c>
+      <c r="G13" s="11">
+        <v>13000</v>
+      </c>
+      <c r="H13" s="11">
+        <v>13000</v>
+      </c>
+      <c r="I13" s="11">
+        <v>2000</v>
+      </c>
+      <c r="J13" s="11">
+        <v>2585</v>
+      </c>
+      <c r="K13" s="11">
+        <v>2000</v>
+      </c>
+      <c r="L13" s="11">
         <v>422000</v>
       </c>
-      <c r="E13" s="11">
+      <c r="M13" s="11">
         <v>410526</v>
       </c>
-      <c r="F13" s="11">
+      <c r="N13" s="11">
         <v>403595</v>
       </c>
-      <c r="G13" s="11">
+      <c r="O13" s="11">
         <v>80940</v>
       </c>
-      <c r="H13" s="11">
+      <c r="P13" s="11">
         <v>75004</v>
       </c>
-      <c r="I13" s="11">
+      <c r="Q13" s="11">
         <v>63682</v>
       </c>
-      <c r="J13" s="11">
+      <c r="R13" s="11">
         <v>65093</v>
       </c>
-      <c r="K13" s="11">
+      <c r="S13" s="11">
         <v>63684</v>
       </c>
-      <c r="L13" s="11">
+      <c r="T13" s="11">
         <v>69403</v>
       </c>
-      <c r="M13" s="11">
+      <c r="U13" s="11">
         <v>91093</v>
       </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V13" s="11">
+        <v>105306</v>
+      </c>
+      <c r="W13" s="11">
+        <v>91946</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C14" s="15"/>
-      <c r="D14" s="15">
+      <c r="D14" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="15">
+        <v>106044</v>
+      </c>
+      <c r="F14" s="15">
+        <v>163146</v>
+      </c>
+      <c r="G14" s="15">
+        <v>221949</v>
+      </c>
+      <c r="H14" s="15">
+        <v>312340</v>
+      </c>
+      <c r="I14" s="15">
+        <v>191781</v>
+      </c>
+      <c r="J14" s="15">
+        <v>251717</v>
+      </c>
+      <c r="K14" s="15">
+        <v>518528</v>
+      </c>
+      <c r="L14" s="15">
         <v>688140</v>
       </c>
-      <c r="E14" s="15">
+      <c r="M14" s="15">
         <v>762055</v>
       </c>
-      <c r="F14" s="15">
+      <c r="N14" s="15">
         <v>1287980</v>
       </c>
-      <c r="G14" s="15">
+      <c r="O14" s="15">
         <v>2145064</v>
       </c>
-      <c r="H14" s="15">
+      <c r="P14" s="15">
         <v>3151532</v>
       </c>
-      <c r="I14" s="15">
+      <c r="Q14" s="15">
         <v>2575108</v>
       </c>
-      <c r="J14" s="15">
+      <c r="R14" s="15">
         <v>1914585</v>
       </c>
-      <c r="K14" s="15">
+      <c r="S14" s="15">
         <v>2909174</v>
       </c>
-      <c r="L14" s="15">
+      <c r="T14" s="15">
         <v>3218957</v>
       </c>
-      <c r="M14" s="15">
+      <c r="U14" s="15">
         <v>3265565</v>
       </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V14" s="15">
+        <v>5989243</v>
+      </c>
+      <c r="W14" s="15">
+        <v>6277136</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C15" s="11"/>
-      <c r="D15" s="11">
+      <c r="D15" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="11">
+        <v>670708</v>
+      </c>
+      <c r="F15" s="11">
+        <v>613815</v>
+      </c>
+      <c r="G15" s="11">
+        <v>688779</v>
+      </c>
+      <c r="H15" s="11">
+        <v>716965</v>
+      </c>
+      <c r="I15" s="11">
+        <v>961591</v>
+      </c>
+      <c r="J15" s="11">
+        <v>1099215</v>
+      </c>
+      <c r="K15" s="11">
+        <v>1543218</v>
+      </c>
+      <c r="L15" s="11">
         <v>1636645</v>
       </c>
-      <c r="E15" s="11">
+      <c r="M15" s="11">
         <v>2518800</v>
       </c>
-      <c r="F15" s="11">
+      <c r="N15" s="11">
         <v>3402913</v>
       </c>
-      <c r="G15" s="11">
+      <c r="O15" s="11">
         <v>3029419</v>
       </c>
-      <c r="H15" s="11">
+      <c r="P15" s="11">
         <v>3608699</v>
       </c>
-      <c r="I15" s="11">
+      <c r="Q15" s="11">
         <v>4496706</v>
       </c>
-      <c r="J15" s="11">
+      <c r="R15" s="11">
         <v>4996386</v>
       </c>
-      <c r="K15" s="11">
+      <c r="S15" s="11">
         <v>4764799</v>
       </c>
-      <c r="L15" s="11">
+      <c r="T15" s="11">
         <v>3948771</v>
       </c>
-      <c r="M15" s="11">
+      <c r="U15" s="11">
         <v>4638923</v>
       </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V15" s="11">
+        <v>5778492</v>
+      </c>
+      <c r="W15" s="11">
+        <v>7872200</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C16" s="15"/>
-      <c r="D16" s="15">
+      <c r="D16" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="15">
+        <v>311299</v>
+      </c>
+      <c r="F16" s="15">
+        <v>352095</v>
+      </c>
+      <c r="G16" s="15">
+        <v>174891</v>
+      </c>
+      <c r="H16" s="15">
+        <v>146766</v>
+      </c>
+      <c r="I16" s="15">
+        <v>367886</v>
+      </c>
+      <c r="J16" s="15">
+        <v>284573</v>
+      </c>
+      <c r="K16" s="15">
+        <v>171178</v>
+      </c>
+      <c r="L16" s="15">
         <v>171150</v>
       </c>
-      <c r="E16" s="15">
+      <c r="M16" s="15">
         <v>469902</v>
       </c>
-      <c r="F16" s="15">
+      <c r="N16" s="15">
         <v>380264</v>
       </c>
-      <c r="G16" s="15">
+      <c r="O16" s="15">
         <v>290558</v>
       </c>
-      <c r="H16" s="15">
+      <c r="P16" s="15">
         <v>1368231</v>
       </c>
-      <c r="I16" s="15">
+      <c r="Q16" s="15">
         <v>593265</v>
       </c>
-      <c r="J16" s="15">
+      <c r="R16" s="15">
         <v>372643</v>
       </c>
-      <c r="K16" s="15">
+      <c r="S16" s="15">
         <v>330337</v>
       </c>
-      <c r="L16" s="15">
+      <c r="T16" s="15">
         <v>1594320</v>
       </c>
-      <c r="M16" s="15">
+      <c r="U16" s="15">
         <v>1950259</v>
       </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V16" s="15">
+        <v>2613938</v>
+      </c>
+      <c r="W16" s="15">
+        <v>1692234</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C17" s="11"/>
-      <c r="D17" s="11">
-        <v>0</v>
+      <c r="D17" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="E17" s="11">
         <v>0</v>
@@ -1167,50 +1527,110 @@
       <c r="M17" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+      <c r="O17" s="11">
+        <v>0</v>
+      </c>
+      <c r="P17" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="11">
+        <v>0</v>
+      </c>
+      <c r="R17" s="11">
+        <v>0</v>
+      </c>
+      <c r="S17" s="11">
+        <v>0</v>
+      </c>
+      <c r="T17" s="11">
+        <v>0</v>
+      </c>
+      <c r="U17" s="11">
+        <v>0</v>
+      </c>
+      <c r="V17" s="11">
+        <v>0</v>
+      </c>
+      <c r="W17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C18" s="17"/>
-      <c r="D18" s="17">
+      <c r="D18" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="17">
+        <v>1196672</v>
+      </c>
+      <c r="F18" s="17">
+        <v>1307852</v>
+      </c>
+      <c r="G18" s="17">
+        <v>1156241</v>
+      </c>
+      <c r="H18" s="17">
+        <v>1512016</v>
+      </c>
+      <c r="I18" s="17">
+        <v>1635152</v>
+      </c>
+      <c r="J18" s="17">
+        <v>1770223</v>
+      </c>
+      <c r="K18" s="17">
+        <v>2432126</v>
+      </c>
+      <c r="L18" s="17">
         <v>3853826</v>
       </c>
-      <c r="E18" s="17">
+      <c r="M18" s="17">
         <v>4320241</v>
       </c>
-      <c r="F18" s="17">
+      <c r="N18" s="17">
         <v>5737207</v>
       </c>
-      <c r="G18" s="17">
+      <c r="O18" s="17">
         <v>6253799</v>
       </c>
-      <c r="H18" s="17">
+      <c r="P18" s="17">
         <v>8297354</v>
       </c>
-      <c r="I18" s="17">
+      <c r="Q18" s="17">
         <v>8277249</v>
       </c>
-      <c r="J18" s="17">
+      <c r="R18" s="17">
         <v>7971493</v>
       </c>
-      <c r="K18" s="17">
+      <c r="S18" s="17">
         <v>8396338</v>
       </c>
-      <c r="L18" s="17">
+      <c r="T18" s="17">
         <v>9448541</v>
       </c>
-      <c r="M18" s="17">
+      <c r="U18" s="17">
         <v>10498049</v>
       </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V18" s="17">
+        <v>15751440</v>
+      </c>
+      <c r="W18" s="17">
+        <v>17286283</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C19" s="11"/>
-      <c r="D19" s="11">
-        <v>0</v>
+      <c r="D19" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="E19" s="11">
         <v>0</v>
@@ -1239,50 +1659,110 @@
       <c r="M19" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N19" s="11">
+        <v>0</v>
+      </c>
+      <c r="O19" s="11">
+        <v>0</v>
+      </c>
+      <c r="P19" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="11">
+        <v>0</v>
+      </c>
+      <c r="R19" s="11">
+        <v>0</v>
+      </c>
+      <c r="S19" s="11">
+        <v>0</v>
+      </c>
+      <c r="T19" s="11">
+        <v>0</v>
+      </c>
+      <c r="U19" s="11">
+        <v>0</v>
+      </c>
+      <c r="V19" s="11">
+        <v>0</v>
+      </c>
+      <c r="W19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C20" s="15"/>
-      <c r="D20" s="15">
+      <c r="D20" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="15">
+        <v>2910</v>
+      </c>
+      <c r="F20" s="15">
+        <v>2910</v>
+      </c>
+      <c r="G20" s="15">
+        <v>2909</v>
+      </c>
+      <c r="H20" s="15">
+        <v>2909</v>
+      </c>
+      <c r="I20" s="15">
+        <v>2910</v>
+      </c>
+      <c r="J20" s="15">
+        <v>2910</v>
+      </c>
+      <c r="K20" s="15">
         <v>37910</v>
       </c>
-      <c r="E20" s="15">
+      <c r="L20" s="15">
+        <v>37910</v>
+      </c>
+      <c r="M20" s="15">
         <v>63910</v>
       </c>
-      <c r="F20" s="15">
+      <c r="N20" s="15">
         <v>62459</v>
       </c>
-      <c r="G20" s="15">
+      <c r="O20" s="15">
         <v>62458</v>
       </c>
-      <c r="H20" s="15">
+      <c r="P20" s="15">
         <v>62468</v>
       </c>
-      <c r="I20" s="15">
+      <c r="Q20" s="15">
         <v>62658</v>
       </c>
-      <c r="J20" s="15">
+      <c r="R20" s="15">
         <v>62658</v>
       </c>
-      <c r="K20" s="15">
+      <c r="S20" s="15">
         <v>62658</v>
       </c>
-      <c r="L20" s="15">
+      <c r="T20" s="15">
         <v>77656</v>
       </c>
-      <c r="M20" s="15">
+      <c r="U20" s="15">
         <v>77656</v>
       </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V20" s="15">
+        <v>77656</v>
+      </c>
+      <c r="W20" s="15">
+        <v>77656</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C21" s="11"/>
-      <c r="D21" s="11">
-        <v>0</v>
+      <c r="D21" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="E21" s="11">
         <v>0</v>
@@ -1311,122 +1791,242 @@
       <c r="M21" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N21" s="11">
+        <v>0</v>
+      </c>
+      <c r="O21" s="11">
+        <v>0</v>
+      </c>
+      <c r="P21" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="11">
+        <v>0</v>
+      </c>
+      <c r="R21" s="11">
+        <v>0</v>
+      </c>
+      <c r="S21" s="11">
+        <v>0</v>
+      </c>
+      <c r="T21" s="11">
+        <v>0</v>
+      </c>
+      <c r="U21" s="11">
+        <v>0</v>
+      </c>
+      <c r="V21" s="11">
+        <v>0</v>
+      </c>
+      <c r="W21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C22" s="15"/>
-      <c r="D22" s="15">
+      <c r="D22" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="15">
+        <v>481639</v>
+      </c>
+      <c r="F22" s="15">
+        <v>531148</v>
+      </c>
+      <c r="G22" s="15">
+        <v>653848</v>
+      </c>
+      <c r="H22" s="15">
+        <v>696227</v>
+      </c>
+      <c r="I22" s="15">
+        <v>674608</v>
+      </c>
+      <c r="J22" s="15">
+        <v>671585</v>
+      </c>
+      <c r="K22" s="15">
+        <v>891345</v>
+      </c>
+      <c r="L22" s="15">
         <v>897505</v>
       </c>
-      <c r="E22" s="15">
+      <c r="M22" s="15">
         <v>1289032</v>
       </c>
-      <c r="F22" s="15">
+      <c r="N22" s="15">
         <v>1541195</v>
       </c>
-      <c r="G22" s="15">
+      <c r="O22" s="15">
         <v>1836360</v>
       </c>
-      <c r="H22" s="15">
+      <c r="P22" s="15">
         <v>2276542</v>
       </c>
-      <c r="I22" s="15">
+      <c r="Q22" s="15">
         <v>2775702</v>
       </c>
-      <c r="J22" s="15">
+      <c r="R22" s="15">
         <v>3032923</v>
       </c>
-      <c r="K22" s="15">
+      <c r="S22" s="15">
         <v>3590718</v>
       </c>
-      <c r="L22" s="15">
+      <c r="T22" s="15">
         <v>3832316</v>
       </c>
-      <c r="M22" s="15">
+      <c r="U22" s="15">
         <v>4108490</v>
       </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V22" s="15">
+        <v>4412138</v>
+      </c>
+      <c r="W22" s="15">
+        <v>4616331</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C23" s="11"/>
-      <c r="D23" s="11">
+      <c r="D23" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="11">
+        <v>39640</v>
+      </c>
+      <c r="F23" s="11">
+        <v>39897</v>
+      </c>
+      <c r="G23" s="11">
+        <v>69328</v>
+      </c>
+      <c r="H23" s="11">
+        <v>71524</v>
+      </c>
+      <c r="I23" s="11">
+        <v>73596</v>
+      </c>
+      <c r="J23" s="11">
+        <v>73014</v>
+      </c>
+      <c r="K23" s="11">
+        <v>73891</v>
+      </c>
+      <c r="L23" s="11">
         <v>96217</v>
       </c>
-      <c r="E23" s="11">
+      <c r="M23" s="11">
         <v>283237</v>
       </c>
-      <c r="F23" s="11">
+      <c r="N23" s="11">
         <v>284885</v>
       </c>
-      <c r="G23" s="11">
+      <c r="O23" s="11">
         <v>284088</v>
       </c>
-      <c r="H23" s="11">
+      <c r="P23" s="11">
         <v>324882</v>
       </c>
-      <c r="I23" s="11">
+      <c r="Q23" s="11">
         <v>331067</v>
       </c>
-      <c r="J23" s="11">
+      <c r="R23" s="11">
         <v>353781</v>
       </c>
-      <c r="K23" s="11">
+      <c r="S23" s="11">
         <v>430628</v>
       </c>
-      <c r="L23" s="11">
+      <c r="T23" s="11">
         <v>487653</v>
       </c>
-      <c r="M23" s="11">
+      <c r="U23" s="11">
         <v>665709</v>
       </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V23" s="11">
+        <v>665160</v>
+      </c>
+      <c r="W23" s="11">
+        <v>697156</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L24" s="15" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="M24" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="N24" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="O24" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="P24" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q24" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="R24" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="S24" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="T24" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="U24" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="V24" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="W24" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C25" s="11"/>
-      <c r="D25" s="11">
-        <v>0</v>
+      <c r="D25" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="E25" s="11">
         <v>0</v>
@@ -1455,82 +2055,172 @@
       <c r="M25" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N25" s="11">
+        <v>0</v>
+      </c>
+      <c r="O25" s="11">
+        <v>0</v>
+      </c>
+      <c r="P25" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="11">
+        <v>0</v>
+      </c>
+      <c r="R25" s="11">
+        <v>0</v>
+      </c>
+      <c r="S25" s="11">
+        <v>0</v>
+      </c>
+      <c r="T25" s="11">
+        <v>0</v>
+      </c>
+      <c r="U25" s="11">
+        <v>0</v>
+      </c>
+      <c r="V25" s="11">
+        <v>0</v>
+      </c>
+      <c r="W25" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C26" s="17"/>
-      <c r="D26" s="17">
+      <c r="D26" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="17">
+        <v>524189</v>
+      </c>
+      <c r="F26" s="17">
+        <v>573955</v>
+      </c>
+      <c r="G26" s="17">
+        <v>726085</v>
+      </c>
+      <c r="H26" s="17">
+        <v>770660</v>
+      </c>
+      <c r="I26" s="17">
+        <v>751114</v>
+      </c>
+      <c r="J26" s="17">
+        <v>747509</v>
+      </c>
+      <c r="K26" s="17">
+        <v>1003146</v>
+      </c>
+      <c r="L26" s="17">
         <v>1031632</v>
       </c>
-      <c r="E26" s="17">
+      <c r="M26" s="17">
         <v>1636179</v>
       </c>
-      <c r="F26" s="17">
+      <c r="N26" s="17">
         <v>1888539</v>
       </c>
-      <c r="G26" s="17">
+      <c r="O26" s="17">
         <v>2182906</v>
       </c>
-      <c r="H26" s="17">
+      <c r="P26" s="17">
         <v>2663892</v>
       </c>
-      <c r="I26" s="17">
+      <c r="Q26" s="17">
         <v>3169427</v>
       </c>
-      <c r="J26" s="17">
+      <c r="R26" s="17">
         <v>3449362</v>
       </c>
-      <c r="K26" s="17">
+      <c r="S26" s="17">
         <v>4084004</v>
       </c>
-      <c r="L26" s="17">
+      <c r="T26" s="17">
         <v>4397625</v>
       </c>
-      <c r="M26" s="17">
+      <c r="U26" s="17">
         <v>4851855</v>
       </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V26" s="17">
+        <v>5154954</v>
+      </c>
+      <c r="W26" s="17">
+        <v>5391143</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B27" s="18" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="C27" s="19"/>
-      <c r="D27" s="19">
+      <c r="D27" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="19">
+        <v>1720861</v>
+      </c>
+      <c r="F27" s="19">
+        <v>1881807</v>
+      </c>
+      <c r="G27" s="19">
+        <v>1882326</v>
+      </c>
+      <c r="H27" s="19">
+        <v>2282676</v>
+      </c>
+      <c r="I27" s="19">
+        <v>2386266</v>
+      </c>
+      <c r="J27" s="19">
+        <v>2517732</v>
+      </c>
+      <c r="K27" s="19">
+        <v>3435272</v>
+      </c>
+      <c r="L27" s="19">
         <v>4885458</v>
       </c>
-      <c r="E27" s="19">
+      <c r="M27" s="19">
         <v>5956420</v>
       </c>
-      <c r="F27" s="19">
+      <c r="N27" s="19">
         <v>7625746</v>
       </c>
-      <c r="G27" s="19">
+      <c r="O27" s="19">
         <v>8436705</v>
       </c>
-      <c r="H27" s="19">
+      <c r="P27" s="19">
         <v>10961246</v>
       </c>
-      <c r="I27" s="19">
+      <c r="Q27" s="19">
         <v>11446676</v>
       </c>
-      <c r="J27" s="19">
+      <c r="R27" s="19">
         <v>11420855</v>
       </c>
-      <c r="K27" s="19">
+      <c r="S27" s="19">
         <v>12480342</v>
       </c>
-      <c r="L27" s="19">
+      <c r="T27" s="19">
         <v>13846166</v>
       </c>
-      <c r="M27" s="19">
+      <c r="U27" s="19">
         <v>15349904</v>
       </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V27" s="19">
+        <v>20906394</v>
+      </c>
+      <c r="W27" s="19">
+        <v>22677426</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -1543,230 +2233,420 @@
       <c r="K28" s="13"/>
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C29" s="15"/>
-      <c r="D29" s="15">
+      <c r="D29" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="15">
+        <v>327222</v>
+      </c>
+      <c r="F29" s="15">
+        <v>364293</v>
+      </c>
+      <c r="G29" s="15">
+        <v>381005</v>
+      </c>
+      <c r="H29" s="15">
+        <v>454246</v>
+      </c>
+      <c r="I29" s="15">
+        <v>386293</v>
+      </c>
+      <c r="J29" s="15">
+        <v>493301</v>
+      </c>
+      <c r="K29" s="15">
+        <v>592269</v>
+      </c>
+      <c r="L29" s="15">
         <v>808273</v>
       </c>
-      <c r="E29" s="15">
+      <c r="M29" s="15">
         <v>1050822</v>
       </c>
-      <c r="F29" s="15">
+      <c r="N29" s="15">
         <v>1971686</v>
       </c>
-      <c r="G29" s="15">
+      <c r="O29" s="15">
         <v>2267199</v>
       </c>
-      <c r="H29" s="15">
+      <c r="P29" s="15">
         <v>2993552</v>
       </c>
-      <c r="I29" s="15">
+      <c r="Q29" s="15">
         <v>1672543</v>
       </c>
-      <c r="J29" s="15">
+      <c r="R29" s="15">
         <v>2268345</v>
       </c>
-      <c r="K29" s="15">
+      <c r="S29" s="15">
         <v>4125959</v>
       </c>
-      <c r="L29" s="15">
+      <c r="T29" s="15">
         <v>2607681</v>
       </c>
-      <c r="M29" s="15">
+      <c r="U29" s="15">
         <v>1412298</v>
       </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V29" s="15">
+        <v>2794029</v>
+      </c>
+      <c r="W29" s="15">
+        <v>5273702</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="O30" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="P30" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q30" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="R30" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="S30" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="T30" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="U30" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="V30" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="W30" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C31" s="15"/>
-      <c r="D31" s="15">
+      <c r="D31" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="15">
+        <v>226880</v>
+      </c>
+      <c r="F31" s="15">
+        <v>190390</v>
+      </c>
+      <c r="G31" s="15">
+        <v>128638</v>
+      </c>
+      <c r="H31" s="15">
+        <v>149220</v>
+      </c>
+      <c r="I31" s="15">
+        <v>184287</v>
+      </c>
+      <c r="J31" s="15">
+        <v>110372</v>
+      </c>
+      <c r="K31" s="15">
+        <v>183564</v>
+      </c>
+      <c r="L31" s="15">
         <v>199019</v>
       </c>
-      <c r="E31" s="15">
+      <c r="M31" s="15">
         <v>724008</v>
       </c>
-      <c r="F31" s="15">
+      <c r="N31" s="15">
         <v>721919</v>
       </c>
-      <c r="G31" s="15">
+      <c r="O31" s="15">
         <v>341601</v>
       </c>
-      <c r="H31" s="15">
+      <c r="P31" s="15">
         <v>455073</v>
       </c>
-      <c r="I31" s="15">
+      <c r="Q31" s="15">
         <v>1277627</v>
       </c>
-      <c r="J31" s="15">
+      <c r="R31" s="15">
         <v>729249</v>
       </c>
-      <c r="K31" s="15">
+      <c r="S31" s="15">
         <v>698533</v>
       </c>
-      <c r="L31" s="15">
+      <c r="T31" s="15">
         <v>1508870</v>
       </c>
-      <c r="M31" s="15">
+      <c r="U31" s="15">
         <v>1895716</v>
       </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V31" s="15">
+        <v>4185306</v>
+      </c>
+      <c r="W31" s="15">
+        <v>3133254</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="C32" s="11"/>
-      <c r="D32" s="11">
+      <c r="D32" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="11">
+        <v>56657</v>
+      </c>
+      <c r="F32" s="11">
+        <v>100958</v>
+      </c>
+      <c r="G32" s="11">
+        <v>76974</v>
+      </c>
+      <c r="H32" s="11">
+        <v>87451</v>
+      </c>
+      <c r="I32" s="11">
+        <v>83135</v>
+      </c>
+      <c r="J32" s="11">
+        <v>108171</v>
+      </c>
+      <c r="K32" s="11">
+        <v>170555</v>
+      </c>
+      <c r="L32" s="11">
         <v>243316</v>
       </c>
-      <c r="E32" s="11">
+      <c r="M32" s="11">
         <v>172434</v>
       </c>
-      <c r="F32" s="11">
+      <c r="N32" s="11">
         <v>177421</v>
       </c>
-      <c r="G32" s="11">
+      <c r="O32" s="11">
         <v>219179</v>
       </c>
-      <c r="H32" s="11">
+      <c r="P32" s="11">
         <v>226466</v>
       </c>
-      <c r="I32" s="11">
+      <c r="Q32" s="11">
         <v>180975</v>
       </c>
-      <c r="J32" s="11">
+      <c r="R32" s="11">
         <v>187402</v>
       </c>
-      <c r="K32" s="11">
+      <c r="S32" s="11">
         <v>128575</v>
       </c>
-      <c r="L32" s="11">
+      <c r="T32" s="11">
         <v>221028</v>
       </c>
-      <c r="M32" s="11">
+      <c r="U32" s="11">
         <v>543259</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V32" s="11">
+        <v>733876</v>
+      </c>
+      <c r="W32" s="11">
+        <v>884210</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="C33" s="15"/>
-      <c r="D33" s="15">
+      <c r="D33" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="15">
+        <v>0</v>
+      </c>
+      <c r="F33" s="15">
+        <v>163419</v>
+      </c>
+      <c r="G33" s="15">
+        <v>163419</v>
+      </c>
+      <c r="H33" s="15">
+        <v>163420</v>
+      </c>
+      <c r="I33" s="15">
+        <v>0</v>
+      </c>
+      <c r="J33" s="15">
+        <v>210579</v>
+      </c>
+      <c r="K33" s="15">
+        <v>180757</v>
+      </c>
+      <c r="L33" s="15">
         <v>76571</v>
       </c>
-      <c r="E33" s="15">
+      <c r="M33" s="15">
         <v>12169</v>
       </c>
-      <c r="F33" s="15">
+      <c r="N33" s="15">
         <v>10240</v>
       </c>
-      <c r="G33" s="15">
+      <c r="O33" s="15">
         <v>516682</v>
       </c>
-      <c r="H33" s="15">
+      <c r="P33" s="15">
         <v>380054</v>
       </c>
-      <c r="I33" s="15">
+      <c r="Q33" s="15">
         <v>25546</v>
       </c>
-      <c r="J33" s="15">
+      <c r="R33" s="15">
         <v>15078</v>
       </c>
-      <c r="K33" s="15">
+      <c r="S33" s="15">
         <v>190999</v>
       </c>
-      <c r="L33" s="15">
+      <c r="T33" s="15">
         <v>190999</v>
       </c>
-      <c r="M33" s="15">
+      <c r="U33" s="15">
         <v>7151</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V33" s="15">
+        <v>908248</v>
+      </c>
+      <c r="W33" s="15">
+        <v>534841</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="C34" s="11"/>
-      <c r="D34" s="11">
+      <c r="D34" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="11">
+        <v>221067</v>
+      </c>
+      <c r="F34" s="11">
+        <v>147210</v>
+      </c>
+      <c r="G34" s="11">
+        <v>162561</v>
+      </c>
+      <c r="H34" s="11">
+        <v>384315</v>
+      </c>
+      <c r="I34" s="11">
+        <v>468312</v>
+      </c>
+      <c r="J34" s="11">
+        <v>294999</v>
+      </c>
+      <c r="K34" s="11">
+        <v>529137</v>
+      </c>
+      <c r="L34" s="11">
         <v>1260075</v>
       </c>
-      <c r="E34" s="11">
+      <c r="M34" s="11">
         <v>1407702</v>
       </c>
-      <c r="F34" s="11">
+      <c r="N34" s="11">
         <v>1714239</v>
       </c>
-      <c r="G34" s="11">
+      <c r="O34" s="11">
         <v>2465085</v>
       </c>
-      <c r="H34" s="11">
+      <c r="P34" s="11">
         <v>3827783</v>
       </c>
-      <c r="I34" s="11">
+      <c r="Q34" s="11">
         <v>3585981</v>
       </c>
-      <c r="J34" s="11">
+      <c r="R34" s="11">
         <v>3309398</v>
       </c>
-      <c r="K34" s="11">
+      <c r="S34" s="11">
         <v>2995404</v>
       </c>
-      <c r="L34" s="11">
+      <c r="T34" s="11">
         <v>4547165</v>
       </c>
-      <c r="M34" s="11">
+      <c r="U34" s="11">
         <v>4800365</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V34" s="11">
+        <v>5236224</v>
+      </c>
+      <c r="W34" s="11">
+        <v>4876081</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C35" s="15"/>
-      <c r="D35" s="15">
-        <v>0</v>
+      <c r="D35" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="E35" s="15">
         <v>0</v>
@@ -1795,14 +2675,44 @@
       <c r="M35" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N35" s="15">
+        <v>0</v>
+      </c>
+      <c r="O35" s="15">
+        <v>0</v>
+      </c>
+      <c r="P35" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="15">
+        <v>0</v>
+      </c>
+      <c r="R35" s="15">
+        <v>0</v>
+      </c>
+      <c r="S35" s="15">
+        <v>0</v>
+      </c>
+      <c r="T35" s="15">
+        <v>0</v>
+      </c>
+      <c r="U35" s="15">
+        <v>0</v>
+      </c>
+      <c r="V35" s="15">
+        <v>0</v>
+      </c>
+      <c r="W35" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="C36" s="11"/>
-      <c r="D36" s="11">
-        <v>0</v>
+      <c r="D36" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="E36" s="11">
         <v>0</v>
@@ -1831,50 +2741,110 @@
       <c r="M36" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N36" s="11">
+        <v>0</v>
+      </c>
+      <c r="O36" s="11">
+        <v>0</v>
+      </c>
+      <c r="P36" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="11">
+        <v>0</v>
+      </c>
+      <c r="R36" s="11">
+        <v>0</v>
+      </c>
+      <c r="S36" s="11">
+        <v>0</v>
+      </c>
+      <c r="T36" s="11">
+        <v>0</v>
+      </c>
+      <c r="U36" s="11">
+        <v>0</v>
+      </c>
+      <c r="V36" s="11">
+        <v>0</v>
+      </c>
+      <c r="W36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C37" s="17"/>
-      <c r="D37" s="17">
+      <c r="D37" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" s="17">
+        <v>831826</v>
+      </c>
+      <c r="F37" s="17">
+        <v>966270</v>
+      </c>
+      <c r="G37" s="17">
+        <v>912597</v>
+      </c>
+      <c r="H37" s="17">
+        <v>1238652</v>
+      </c>
+      <c r="I37" s="17">
+        <v>1122027</v>
+      </c>
+      <c r="J37" s="17">
+        <v>1217422</v>
+      </c>
+      <c r="K37" s="17">
+        <v>1656282</v>
+      </c>
+      <c r="L37" s="17">
         <v>2587254</v>
       </c>
-      <c r="E37" s="17">
+      <c r="M37" s="17">
         <v>3367135</v>
       </c>
-      <c r="F37" s="17">
+      <c r="N37" s="17">
         <v>4595505</v>
       </c>
-      <c r="G37" s="17">
+      <c r="O37" s="17">
         <v>5809746</v>
       </c>
-      <c r="H37" s="17">
+      <c r="P37" s="17">
         <v>7882928</v>
       </c>
-      <c r="I37" s="17">
+      <c r="Q37" s="17">
         <v>6742672</v>
       </c>
-      <c r="J37" s="17">
+      <c r="R37" s="17">
         <v>6509472</v>
       </c>
-      <c r="K37" s="17">
+      <c r="S37" s="17">
         <v>8139470</v>
       </c>
-      <c r="L37" s="17">
+      <c r="T37" s="17">
         <v>9075743</v>
       </c>
-      <c r="M37" s="17">
+      <c r="U37" s="17">
         <v>8658789</v>
       </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V37" s="17">
+        <v>13857683</v>
+      </c>
+      <c r="W37" s="17">
+        <v>14702088</v>
+      </c>
+    </row>
+    <row r="38" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="C38" s="11"/>
-      <c r="D38" s="11">
-        <v>0</v>
+      <c r="D38" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="E38" s="11">
         <v>0</v>
@@ -1903,50 +2873,110 @@
       <c r="M38" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N38" s="11">
+        <v>0</v>
+      </c>
+      <c r="O38" s="11">
+        <v>0</v>
+      </c>
+      <c r="P38" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="11">
+        <v>0</v>
+      </c>
+      <c r="R38" s="11">
+        <v>0</v>
+      </c>
+      <c r="S38" s="11">
+        <v>0</v>
+      </c>
+      <c r="T38" s="11">
+        <v>0</v>
+      </c>
+      <c r="U38" s="11">
+        <v>0</v>
+      </c>
+      <c r="V38" s="11">
+        <v>0</v>
+      </c>
+      <c r="W38" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>40</v>
+        <v>47</v>
+      </c>
+      <c r="F39" s="15">
+        <v>0</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="J39" s="15" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="K39" s="15" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L39" s="15" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="M39" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="N39" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="O39" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="P39" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q39" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="R39" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="S39" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="T39" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="U39" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="V39" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="W39" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="C40" s="11"/>
-      <c r="D40" s="11">
-        <v>0</v>
+      <c r="D40" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="E40" s="11">
         <v>0</v>
@@ -1961,132 +2991,252 @@
         <v>0</v>
       </c>
       <c r="I40" s="11">
+        <v>0</v>
+      </c>
+      <c r="J40" s="11">
+        <v>0</v>
+      </c>
+      <c r="K40" s="11">
+        <v>0</v>
+      </c>
+      <c r="L40" s="11">
+        <v>0</v>
+      </c>
+      <c r="M40" s="11">
+        <v>0</v>
+      </c>
+      <c r="N40" s="11">
+        <v>0</v>
+      </c>
+      <c r="O40" s="11">
+        <v>0</v>
+      </c>
+      <c r="P40" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="11">
         <v>291667</v>
       </c>
-      <c r="J40" s="11">
+      <c r="R40" s="11">
         <v>166667</v>
       </c>
-      <c r="K40" s="11">
+      <c r="S40" s="11">
         <v>41667</v>
       </c>
-      <c r="L40" s="11">
-        <v>0</v>
-      </c>
-      <c r="M40" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="T40" s="11">
+        <v>0</v>
+      </c>
+      <c r="U40" s="11">
+        <v>0</v>
+      </c>
+      <c r="V40" s="11">
+        <v>0</v>
+      </c>
+      <c r="W40" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="C41" s="15"/>
-      <c r="D41" s="15">
+      <c r="D41" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="15">
+        <v>36642</v>
+      </c>
+      <c r="F41" s="15">
+        <v>48963</v>
+      </c>
+      <c r="G41" s="15">
+        <v>51286</v>
+      </c>
+      <c r="H41" s="15">
+        <v>52584</v>
+      </c>
+      <c r="I41" s="15">
+        <v>55280</v>
+      </c>
+      <c r="J41" s="15">
+        <v>61436</v>
+      </c>
+      <c r="K41" s="15">
+        <v>68159</v>
+      </c>
+      <c r="L41" s="15">
         <v>96547</v>
       </c>
-      <c r="E41" s="15">
+      <c r="M41" s="15">
         <v>102409</v>
       </c>
-      <c r="F41" s="15">
+      <c r="N41" s="15">
         <v>116113</v>
       </c>
-      <c r="G41" s="15">
+      <c r="O41" s="15">
         <v>134021</v>
       </c>
-      <c r="H41" s="15">
+      <c r="P41" s="15">
         <v>153371</v>
       </c>
-      <c r="I41" s="15">
+      <c r="Q41" s="15">
         <v>173622</v>
       </c>
-      <c r="J41" s="15">
+      <c r="R41" s="15">
         <v>194835</v>
       </c>
-      <c r="K41" s="15">
+      <c r="S41" s="15">
         <v>225169</v>
       </c>
-      <c r="L41" s="15">
+      <c r="T41" s="15">
         <v>255388</v>
       </c>
-      <c r="M41" s="15">
+      <c r="U41" s="15">
         <v>431902</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V41" s="15">
+        <v>467433</v>
+      </c>
+      <c r="W41" s="15">
+        <v>514831</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C42" s="19"/>
-      <c r="D42" s="19">
+      <c r="D42" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" s="19">
+        <v>36642</v>
+      </c>
+      <c r="F42" s="19">
+        <v>48963</v>
+      </c>
+      <c r="G42" s="19">
+        <v>51286</v>
+      </c>
+      <c r="H42" s="19">
+        <v>52584</v>
+      </c>
+      <c r="I42" s="19">
+        <v>55280</v>
+      </c>
+      <c r="J42" s="19">
+        <v>61436</v>
+      </c>
+      <c r="K42" s="19">
+        <v>68159</v>
+      </c>
+      <c r="L42" s="19">
         <v>96547</v>
       </c>
-      <c r="E42" s="19">
+      <c r="M42" s="19">
         <v>102409</v>
       </c>
-      <c r="F42" s="19">
+      <c r="N42" s="19">
         <v>116113</v>
       </c>
-      <c r="G42" s="19">
+      <c r="O42" s="19">
         <v>134021</v>
       </c>
-      <c r="H42" s="19">
+      <c r="P42" s="19">
         <v>153371</v>
       </c>
-      <c r="I42" s="19">
+      <c r="Q42" s="19">
         <v>465289</v>
       </c>
-      <c r="J42" s="19">
+      <c r="R42" s="19">
         <v>361502</v>
       </c>
-      <c r="K42" s="19">
+      <c r="S42" s="19">
         <v>266836</v>
       </c>
-      <c r="L42" s="19">
+      <c r="T42" s="19">
         <v>255388</v>
       </c>
-      <c r="M42" s="19">
+      <c r="U42" s="19">
         <v>431902</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V42" s="19">
+        <v>467433</v>
+      </c>
+      <c r="W42" s="19">
+        <v>514831</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C43" s="17"/>
-      <c r="D43" s="17">
+      <c r="D43" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" s="17">
+        <v>868468</v>
+      </c>
+      <c r="F43" s="17">
+        <v>1015233</v>
+      </c>
+      <c r="G43" s="17">
+        <v>963883</v>
+      </c>
+      <c r="H43" s="17">
+        <v>1291236</v>
+      </c>
+      <c r="I43" s="17">
+        <v>1177307</v>
+      </c>
+      <c r="J43" s="17">
+        <v>1278858</v>
+      </c>
+      <c r="K43" s="17">
+        <v>1724441</v>
+      </c>
+      <c r="L43" s="17">
         <v>2683801</v>
       </c>
-      <c r="E43" s="17">
+      <c r="M43" s="17">
         <v>3469544</v>
       </c>
-      <c r="F43" s="17">
+      <c r="N43" s="17">
         <v>4711618</v>
       </c>
-      <c r="G43" s="17">
+      <c r="O43" s="17">
         <v>5943767</v>
       </c>
-      <c r="H43" s="17">
+      <c r="P43" s="17">
         <v>8036299</v>
       </c>
-      <c r="I43" s="17">
+      <c r="Q43" s="17">
         <v>7207961</v>
       </c>
-      <c r="J43" s="17">
+      <c r="R43" s="17">
         <v>6870974</v>
       </c>
-      <c r="K43" s="17">
+      <c r="S43" s="17">
         <v>8406306</v>
       </c>
-      <c r="L43" s="17">
+      <c r="T43" s="17">
         <v>9331131</v>
       </c>
-      <c r="M43" s="17">
+      <c r="U43" s="17">
         <v>9090691</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V43" s="17">
+        <v>14325116</v>
+      </c>
+      <c r="W43" s="17">
+        <v>15216919</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -2099,50 +3249,90 @@
       <c r="K44" s="13"/>
       <c r="L44" s="13"/>
       <c r="M44" s="13"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="13"/>
+      <c r="S44" s="13"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="13"/>
+      <c r="V44" s="13"/>
+      <c r="W44" s="13"/>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C45" s="15"/>
-      <c r="D45" s="15">
-        <v>600000</v>
+      <c r="D45" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="E45" s="15">
-        <v>600000</v>
+        <v>375000</v>
       </c>
       <c r="F45" s="15">
-        <v>600000</v>
+        <v>375000</v>
       </c>
       <c r="G45" s="15">
-        <v>600000</v>
+        <v>375000</v>
       </c>
       <c r="H45" s="15">
-        <v>600000</v>
+        <v>375000</v>
       </c>
       <c r="I45" s="15">
         <v>600000</v>
       </c>
       <c r="J45" s="15">
+        <v>600000</v>
+      </c>
+      <c r="K45" s="15">
+        <v>600000</v>
+      </c>
+      <c r="L45" s="15">
+        <v>600000</v>
+      </c>
+      <c r="M45" s="15">
+        <v>600000</v>
+      </c>
+      <c r="N45" s="15">
+        <v>600000</v>
+      </c>
+      <c r="O45" s="15">
+        <v>600000</v>
+      </c>
+      <c r="P45" s="15">
+        <v>600000</v>
+      </c>
+      <c r="Q45" s="15">
+        <v>600000</v>
+      </c>
+      <c r="R45" s="15">
         <v>3000000</v>
       </c>
-      <c r="K45" s="15">
+      <c r="S45" s="15">
         <v>3000000</v>
       </c>
-      <c r="L45" s="15">
+      <c r="T45" s="15">
         <v>3000000</v>
       </c>
-      <c r="M45" s="15">
+      <c r="U45" s="15">
         <v>3000000</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V45" s="15">
+        <v>3000000</v>
+      </c>
+      <c r="W45" s="15">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="C46" s="11"/>
-      <c r="D46" s="11">
-        <v>0</v>
+      <c r="D46" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="E46" s="11">
         <v>0</v>
@@ -2171,14 +3361,44 @@
       <c r="M46" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N46" s="11">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11">
+        <v>0</v>
+      </c>
+      <c r="P46" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="11">
+        <v>0</v>
+      </c>
+      <c r="R46" s="11">
+        <v>0</v>
+      </c>
+      <c r="S46" s="11">
+        <v>0</v>
+      </c>
+      <c r="T46" s="11">
+        <v>0</v>
+      </c>
+      <c r="U46" s="11">
+        <v>0</v>
+      </c>
+      <c r="V46" s="11">
+        <v>0</v>
+      </c>
+      <c r="W46" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="C47" s="15"/>
-      <c r="D47" s="15">
-        <v>0</v>
+      <c r="D47" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="E47" s="15">
         <v>0</v>
@@ -2193,28 +3413,58 @@
         <v>0</v>
       </c>
       <c r="I47" s="15">
+        <v>0</v>
+      </c>
+      <c r="J47" s="15">
+        <v>0</v>
+      </c>
+      <c r="K47" s="15">
+        <v>0</v>
+      </c>
+      <c r="L47" s="15">
+        <v>0</v>
+      </c>
+      <c r="M47" s="15">
+        <v>0</v>
+      </c>
+      <c r="N47" s="15">
+        <v>0</v>
+      </c>
+      <c r="O47" s="15">
+        <v>0</v>
+      </c>
+      <c r="P47" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="15">
         <v>2287824</v>
       </c>
-      <c r="J47" s="15">
-        <v>0</v>
-      </c>
-      <c r="K47" s="15">
-        <v>0</v>
-      </c>
-      <c r="L47" s="15">
-        <v>0</v>
-      </c>
-      <c r="M47" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="R47" s="15">
+        <v>0</v>
+      </c>
+      <c r="S47" s="15">
+        <v>0</v>
+      </c>
+      <c r="T47" s="15">
+        <v>0</v>
+      </c>
+      <c r="U47" s="15">
+        <v>0</v>
+      </c>
+      <c r="V47" s="15">
+        <v>0</v>
+      </c>
+      <c r="W47" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="C48" s="11"/>
-      <c r="D48" s="11">
-        <v>0</v>
+      <c r="D48" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="E48" s="11">
         <v>0</v>
@@ -2243,20 +3493,50 @@
       <c r="M48" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N48" s="11">
+        <v>0</v>
+      </c>
+      <c r="O48" s="11">
+        <v>0</v>
+      </c>
+      <c r="P48" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="11">
+        <v>0</v>
+      </c>
+      <c r="R48" s="11">
+        <v>0</v>
+      </c>
+      <c r="S48" s="11">
+        <v>0</v>
+      </c>
+      <c r="T48" s="11">
+        <v>0</v>
+      </c>
+      <c r="U48" s="11">
+        <v>0</v>
+      </c>
+      <c r="V48" s="11">
+        <v>0</v>
+      </c>
+      <c r="W48" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C49" s="15"/>
-      <c r="D49" s="15">
-        <v>0</v>
+      <c r="D49" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="E49" s="15">
         <v>0</v>
       </c>
-      <c r="F49" s="15">
-        <v>0</v>
+      <c r="F49" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="G49" s="15">
         <v>0</v>
@@ -2279,50 +3559,110 @@
       <c r="M49" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N49" s="15">
+        <v>0</v>
+      </c>
+      <c r="O49" s="15">
+        <v>0</v>
+      </c>
+      <c r="P49" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="15">
+        <v>0</v>
+      </c>
+      <c r="R49" s="15">
+        <v>0</v>
+      </c>
+      <c r="S49" s="15">
+        <v>0</v>
+      </c>
+      <c r="T49" s="15">
+        <v>0</v>
+      </c>
+      <c r="U49" s="15">
+        <v>0</v>
+      </c>
+      <c r="V49" s="15">
+        <v>0</v>
+      </c>
+      <c r="W49" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="C50" s="11"/>
-      <c r="D50" s="11">
+      <c r="D50" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E50" s="11">
+        <v>26936</v>
+      </c>
+      <c r="F50" s="11">
+        <v>35816</v>
+      </c>
+      <c r="G50" s="11">
+        <v>37500</v>
+      </c>
+      <c r="H50" s="11">
+        <v>37500</v>
+      </c>
+      <c r="I50" s="11">
+        <v>52936</v>
+      </c>
+      <c r="J50" s="11">
         <v>60000</v>
       </c>
-      <c r="E50" s="11">
+      <c r="K50" s="11">
         <v>60000</v>
       </c>
-      <c r="F50" s="11">
+      <c r="L50" s="11">
         <v>60000</v>
       </c>
-      <c r="G50" s="11">
+      <c r="M50" s="11">
         <v>60000</v>
       </c>
-      <c r="H50" s="11">
+      <c r="N50" s="11">
         <v>60000</v>
       </c>
-      <c r="I50" s="11">
+      <c r="O50" s="11">
         <v>60000</v>
       </c>
-      <c r="J50" s="11">
+      <c r="P50" s="11">
+        <v>60000</v>
+      </c>
+      <c r="Q50" s="11">
+        <v>60000</v>
+      </c>
+      <c r="R50" s="11">
         <v>69950</v>
       </c>
-      <c r="K50" s="11">
+      <c r="S50" s="11">
         <v>61157</v>
       </c>
-      <c r="L50" s="11">
+      <c r="T50" s="11">
         <v>83207</v>
       </c>
-      <c r="M50" s="11">
+      <c r="U50" s="11">
         <v>170416</v>
       </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V50" s="11">
+        <v>231519</v>
+      </c>
+      <c r="W50" s="11">
+        <v>275481</v>
+      </c>
+    </row>
+    <row r="51" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="C51" s="15"/>
-      <c r="D51" s="15">
-        <v>0</v>
+      <c r="D51" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="E51" s="15">
         <v>0</v>
@@ -2351,50 +3691,110 @@
       <c r="M51" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N51" s="15">
+        <v>0</v>
+      </c>
+      <c r="O51" s="15">
+        <v>0</v>
+      </c>
+      <c r="P51" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="15">
+        <v>0</v>
+      </c>
+      <c r="R51" s="15">
+        <v>0</v>
+      </c>
+      <c r="S51" s="15">
+        <v>0</v>
+      </c>
+      <c r="T51" s="15">
+        <v>0</v>
+      </c>
+      <c r="U51" s="15">
+        <v>0</v>
+      </c>
+      <c r="V51" s="15">
+        <v>0</v>
+      </c>
+      <c r="W51" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>40</v>
+        <v>47</v>
+      </c>
+      <c r="F52" s="11">
+        <v>0</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="K52" s="11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L52" s="11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="M52" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="N52" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="O52" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="P52" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q52" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="R52" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="S52" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="T52" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="U52" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="V52" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="W52" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="C53" s="15"/>
-      <c r="D53" s="15">
-        <v>0</v>
+      <c r="D53" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="E53" s="15">
         <v>0</v>
@@ -2423,50 +3823,110 @@
       <c r="M53" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N53" s="15">
+        <v>0</v>
+      </c>
+      <c r="O53" s="15">
+        <v>0</v>
+      </c>
+      <c r="P53" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="15">
+        <v>0</v>
+      </c>
+      <c r="R53" s="15">
+        <v>0</v>
+      </c>
+      <c r="S53" s="15">
+        <v>0</v>
+      </c>
+      <c r="T53" s="15">
+        <v>0</v>
+      </c>
+      <c r="U53" s="15">
+        <v>0</v>
+      </c>
+      <c r="V53" s="15">
+        <v>0</v>
+      </c>
+      <c r="W53" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>40</v>
+        <v>47</v>
+      </c>
+      <c r="F54" s="11">
+        <v>0</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="K54" s="11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L54" s="11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="M54" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="N54" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="O54" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="P54" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q54" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="R54" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="S54" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="T54" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="U54" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="V54" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="W54" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C55" s="15"/>
-      <c r="D55" s="15">
-        <v>0</v>
+      <c r="D55" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="E55" s="15">
         <v>0</v>
@@ -2495,116 +3955,236 @@
       <c r="M55" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N55" s="15">
+        <v>0</v>
+      </c>
+      <c r="O55" s="15">
+        <v>0</v>
+      </c>
+      <c r="P55" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="15">
+        <v>0</v>
+      </c>
+      <c r="R55" s="15">
+        <v>0</v>
+      </c>
+      <c r="S55" s="15">
+        <v>0</v>
+      </c>
+      <c r="T55" s="15">
+        <v>0</v>
+      </c>
+      <c r="U55" s="15">
+        <v>0</v>
+      </c>
+      <c r="V55" s="15">
+        <v>0</v>
+      </c>
+      <c r="W55" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="C56" s="11"/>
-      <c r="D56" s="11">
+      <c r="D56" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E56" s="11">
+        <v>450457</v>
+      </c>
+      <c r="F56" s="11">
+        <v>455758</v>
+      </c>
+      <c r="G56" s="11">
+        <v>505943</v>
+      </c>
+      <c r="H56" s="11">
+        <v>578940</v>
+      </c>
+      <c r="I56" s="11">
+        <v>556023</v>
+      </c>
+      <c r="J56" s="11">
+        <v>578874</v>
+      </c>
+      <c r="K56" s="11">
+        <v>1050831</v>
+      </c>
+      <c r="L56" s="11">
         <v>1541657</v>
       </c>
-      <c r="E56" s="11">
+      <c r="M56" s="11">
         <v>1826876</v>
       </c>
-      <c r="F56" s="11">
+      <c r="N56" s="11">
         <v>2254128</v>
       </c>
-      <c r="G56" s="11">
+      <c r="O56" s="11">
         <v>1832938</v>
       </c>
-      <c r="H56" s="11">
+      <c r="P56" s="11">
         <v>2264947</v>
       </c>
-      <c r="I56" s="11">
+      <c r="Q56" s="11">
         <v>1290891</v>
       </c>
-      <c r="J56" s="11">
+      <c r="R56" s="11">
         <v>1479931</v>
       </c>
-      <c r="K56" s="11">
+      <c r="S56" s="11">
         <v>1012879</v>
       </c>
-      <c r="L56" s="11">
+      <c r="T56" s="11">
         <v>1431828</v>
       </c>
-      <c r="M56" s="11">
+      <c r="U56" s="11">
         <v>3088797</v>
       </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V56" s="11">
+        <v>3349759</v>
+      </c>
+      <c r="W56" s="11">
+        <v>4185026</v>
+      </c>
+    </row>
+    <row r="57" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B57" s="16" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="C57" s="17"/>
-      <c r="D57" s="17">
+      <c r="D57" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E57" s="17">
+        <v>852393</v>
+      </c>
+      <c r="F57" s="17">
+        <v>866574</v>
+      </c>
+      <c r="G57" s="17">
+        <v>918443</v>
+      </c>
+      <c r="H57" s="17">
+        <v>991440</v>
+      </c>
+      <c r="I57" s="17">
+        <v>1208959</v>
+      </c>
+      <c r="J57" s="17">
+        <v>1238874</v>
+      </c>
+      <c r="K57" s="17">
+        <v>1710831</v>
+      </c>
+      <c r="L57" s="17">
         <v>2201657</v>
       </c>
-      <c r="E57" s="17">
+      <c r="M57" s="17">
         <v>2486876</v>
       </c>
-      <c r="F57" s="17">
+      <c r="N57" s="17">
         <v>2914128</v>
       </c>
-      <c r="G57" s="17">
+      <c r="O57" s="17">
         <v>2492938</v>
       </c>
-      <c r="H57" s="17">
+      <c r="P57" s="17">
         <v>2924947</v>
       </c>
-      <c r="I57" s="17">
+      <c r="Q57" s="17">
         <v>4238715</v>
       </c>
-      <c r="J57" s="17">
+      <c r="R57" s="17">
         <v>4549881</v>
       </c>
-      <c r="K57" s="17">
+      <c r="S57" s="17">
         <v>4074036</v>
       </c>
-      <c r="L57" s="17">
+      <c r="T57" s="17">
         <v>4515035</v>
       </c>
-      <c r="M57" s="17">
+      <c r="U57" s="17">
         <v>6259213</v>
       </c>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V57" s="17">
+        <v>6581278</v>
+      </c>
+      <c r="W57" s="17">
+        <v>7460507</v>
+      </c>
+    </row>
+    <row r="58" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B58" s="18" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="C58" s="19"/>
-      <c r="D58" s="19">
+      <c r="D58" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E58" s="19">
+        <v>1720861</v>
+      </c>
+      <c r="F58" s="19">
+        <v>1881807</v>
+      </c>
+      <c r="G58" s="19">
+        <v>1882326</v>
+      </c>
+      <c r="H58" s="19">
+        <v>2282676</v>
+      </c>
+      <c r="I58" s="19">
+        <v>2386266</v>
+      </c>
+      <c r="J58" s="19">
+        <v>2517732</v>
+      </c>
+      <c r="K58" s="19">
+        <v>3435272</v>
+      </c>
+      <c r="L58" s="19">
         <v>4885458</v>
       </c>
-      <c r="E58" s="19">
+      <c r="M58" s="19">
         <v>5956420</v>
       </c>
-      <c r="F58" s="19">
+      <c r="N58" s="19">
         <v>7625746</v>
       </c>
-      <c r="G58" s="19">
+      <c r="O58" s="19">
         <v>8436705</v>
       </c>
-      <c r="H58" s="19">
+      <c r="P58" s="19">
         <v>10961246</v>
       </c>
-      <c r="I58" s="19">
+      <c r="Q58" s="19">
         <v>11446676</v>
       </c>
-      <c r="J58" s="19">
+      <c r="R58" s="19">
         <v>11420855</v>
       </c>
-      <c r="K58" s="19">
+      <c r="S58" s="19">
         <v>12480342</v>
       </c>
-      <c r="L58" s="19">
+      <c r="T58" s="19">
         <v>13846166</v>
       </c>
-      <c r="M58" s="19">
+      <c r="U58" s="19">
         <v>15349904</v>
       </c>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V58" s="19">
+        <v>20906394</v>
+      </c>
+      <c r="W58" s="19">
+        <v>22677426</v>
+      </c>
+    </row>
+    <row r="59" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2617,6 +4197,16 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
